--- a/Rapport/Modèle_JournalDeBord.xlsx
+++ b/Rapport/Modèle_JournalDeBord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan.chenaux\Desktop\Bachelor_Antenna\Rapport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Diploma\TD2019\SYND\johan.chenaux\Rapport\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="NIn0T1WRGXhKU2+OoH+BsRuVfrb7nJ7y5vbyLVAILmRYj2zwCyioo8BgXIJRnTVAfh2k6K4+gNyrLoUAV8v7uw==" workbookSaltValue="FtSj9CbO3X7PexISjunkQQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9315" tabRatio="947" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9315" tabRatio="947" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="JBordResume" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="38">
   <si>
     <t>Projet</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>mise en place eclipse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">design antenne </t>
+  </si>
+  <si>
+    <t>refaire avec trou</t>
   </si>
 </sst>
 </file>
@@ -482,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -557,9 +563,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -585,6 +588,39 @@
     <xf numFmtId="20" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -598,75 +634,42 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -719,10 +722,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -734,21 +752,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1214,7 +1217,7 @@
   <dimension ref="A1:IU113"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="12" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
@@ -1229,43 +1232,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="4">
         <v>43693</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
     </row>
     <row r="6" spans="1:3" ht="45.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37"/>
@@ -1283,37 +1286,37 @@
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="43"/>
+      <c r="C8" s="41"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="43"/>
+      <c r="C9" s="41"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="43"/>
+      <c r="C10" s="41"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="43"/>
+      <c r="C11" s="41"/>
     </row>
     <row r="12" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="s">
@@ -1334,7 +1337,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="44">
+      <c r="A14" s="32">
         <f>JBordJour1!C2</f>
         <v>0</v>
       </c>
@@ -1342,37 +1345,37 @@
         <f>IF(JBordJour1!C13&lt;&gt;"",JBordJour1!C13,"-")</f>
         <v>préparation des fichiers</v>
       </c>
-      <c r="C14" s="40" t="str">
+      <c r="C14" s="35" t="str">
         <f>JBordJour1!$A$23</f>
         <v>-</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="45"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="8" t="str">
         <f>IF(JBordJour1!C14&lt;&gt;"",JBordJour1!C14,"-")</f>
         <v>recherche d'info</v>
       </c>
-      <c r="C15" s="41"/>
+      <c r="C15" s="36"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="45"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="8" t="str">
         <f>IF(JBordJour1!C15&lt;&gt;"",JBordJour1!C15,"-")</f>
         <v>recherche d'info</v>
       </c>
-      <c r="C16" s="41"/>
+      <c r="C16" s="36"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="45"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="8" t="str">
         <f>IF(JBordJour1!C16&lt;&gt;"",JBordJour1!C16,"-")</f>
         <v>recherche d'info</v>
       </c>
-      <c r="C17" s="41"/>
+      <c r="C17" s="36"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="8" t="str">
         <f>IF(JBordJour1!C17&lt;&gt;"",JBordJour1!C17,"-")</f>
         <v>recherche d'info</v>
@@ -1382,31 +1385,31 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="45"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="8" t="str">
         <f>IF(JBordJour1!C18&lt;&gt;"",JBordJour1!C18,"-")</f>
         <v>recherche d'info</v>
       </c>
-      <c r="C19" s="41">
+      <c r="C19" s="36">
         <f>JBordJour1!$A$25</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="45"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="8" t="str">
         <f>IF(JBordJour1!C19&lt;&gt;"",JBordJour1!C19,"-")</f>
         <v>recherche d'info</v>
       </c>
-      <c r="C20" s="41"/>
+      <c r="C20" s="36"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="46"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="8" t="str">
         <f>IF(JBordJour1!C20&lt;&gt;"",JBordJour1!C20,"-")</f>
         <v>recherche d'info</v>
       </c>
-      <c r="C21" s="41"/>
+      <c r="C21" s="36"/>
     </row>
     <row r="22" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
@@ -1414,7 +1417,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="41"/>
+      <c r="C22" s="36"/>
     </row>
     <row r="23" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
@@ -1428,7 +1431,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="44">
+      <c r="A24" s="32">
         <f>JBordJour2!C2</f>
         <v>0</v>
       </c>
@@ -1436,37 +1439,37 @@
         <f>IF(JBordJour2!C13&lt;&gt;"",JBordJour2!C13,"-")</f>
         <v>recherche d'info</v>
       </c>
-      <c r="C24" s="40" t="str">
+      <c r="C24" s="35" t="str">
         <f>JBordJour2!$A$23</f>
         <v>-</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="45"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="8" t="str">
         <f>IF(JBordJour2!C14&lt;&gt;"",JBordJour2!C14,"-")</f>
         <v>design antenne</v>
       </c>
-      <c r="C25" s="41"/>
+      <c r="C25" s="36"/>
     </row>
     <row r="26" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="45"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="8" t="str">
         <f>IF(JBordJour2!C15&lt;&gt;"",JBordJour2!C15,"-")</f>
         <v>design antenne</v>
       </c>
-      <c r="C26" s="41"/>
+      <c r="C26" s="36"/>
     </row>
     <row r="27" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="45"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="8" t="str">
         <f>IF(JBordJour2!C16&lt;&gt;"",JBordJour2!C16,"-")</f>
         <v>design antenne</v>
       </c>
-      <c r="C27" s="41"/>
+      <c r="C27" s="36"/>
     </row>
     <row r="28" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="45"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="8" t="str">
         <f>IF(JBordJour2!C17&lt;&gt;"",JBordJour2!C17,"-")</f>
         <v>recherche d'info</v>
@@ -1476,31 +1479,31 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="45"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="8" t="str">
         <f>IF(JBordJour2!C18&lt;&gt;"",JBordJour2!C18,"-")</f>
         <v>recherche d'info</v>
       </c>
-      <c r="C29" s="41">
+      <c r="C29" s="36">
         <f>JBordJour2!$A$25</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="45"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="8" t="str">
         <f>IF(JBordJour2!C19&lt;&gt;"",JBordJour2!C19,"-")</f>
         <v>recherche d'info</v>
       </c>
-      <c r="C30" s="41"/>
+      <c r="C30" s="36"/>
     </row>
     <row r="31" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="46"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="8" t="str">
         <f>IF(JBordJour2!C20&lt;&gt;"",JBordJour2!C20,"-")</f>
         <v>recherche d'info</v>
       </c>
-      <c r="C31" s="41"/>
+      <c r="C31" s="36"/>
     </row>
     <row r="32" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="18">
@@ -1508,7 +1511,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="41"/>
+      <c r="C32" s="36"/>
     </row>
     <row r="33" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
@@ -1522,7 +1525,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="44">
+      <c r="A34" s="32">
         <f>JBordJour3!C2</f>
         <v>0</v>
       </c>
@@ -1530,63 +1533,63 @@
         <f>IF(JBordJour3!C13&lt;&gt;"",JBordJour3!C13,"-")</f>
         <v>mise en place eclipse</v>
       </c>
-      <c r="C34" s="40" t="str">
+      <c r="C34" s="35" t="str">
         <f>JBordJour3!$A$23</f>
         <v>-</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="45"/>
+      <c r="A35" s="33"/>
       <c r="B35" s="8" t="str">
         <f>IF(JBordJour3!C14&lt;&gt;"",JBordJour3!C14,"-")</f>
         <v>mise en place eclipse</v>
       </c>
-      <c r="C35" s="41"/>
+      <c r="C35" s="36"/>
     </row>
     <row r="36" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="45"/>
+      <c r="A36" s="33"/>
       <c r="B36" s="8" t="str">
         <f>IF(JBordJour3!C15&lt;&gt;"",JBordJour3!C15,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C36" s="41"/>
+        <v>design antenne</v>
+      </c>
+      <c r="C36" s="36"/>
     </row>
     <row r="37" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="45"/>
+      <c r="A37" s="33"/>
       <c r="B37" s="8" t="str">
         <f>IF(JBordJour3!C16&lt;&gt;"",JBordJour3!C16,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C37" s="41"/>
+        <v>design antenne</v>
+      </c>
+      <c r="C37" s="36"/>
     </row>
     <row r="38" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="45"/>
+      <c r="A38" s="33"/>
       <c r="B38" s="8" t="str">
         <f>IF(JBordJour3!C17&lt;&gt;"",JBordJour3!C17,"-")</f>
-        <v>-</v>
+        <v>design antenne</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="45"/>
+      <c r="A39" s="33"/>
       <c r="B39" s="8" t="str">
         <f>IF(JBordJour3!C18&lt;&gt;"",JBordJour3!C18,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C39" s="41">
+        <v>design antenne</v>
+      </c>
+      <c r="C39" s="36">
         <f>JBordJour3!$A$25</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="46"/>
+      <c r="A40" s="34"/>
       <c r="B40" s="8" t="str">
         <f>IF(JBordJour3!C19&lt;&gt;"",JBordJour3!C19,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C40" s="41"/>
+        <v>design antenne</v>
+      </c>
+      <c r="C40" s="36"/>
     </row>
     <row r="41" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="18">
@@ -1595,9 +1598,9 @@
       </c>
       <c r="B41" s="8" t="str">
         <f>IF(JBordJour3!C20&lt;&gt;"",JBordJour3!C20,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C41" s="41"/>
+        <v>design antenne</v>
+      </c>
+      <c r="C41" s="36"/>
     </row>
     <row r="42" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
@@ -1611,71 +1614,71 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="44">
+      <c r="A43" s="32">
         <f>JBordJour4!C2</f>
         <v>0</v>
       </c>
       <c r="B43" s="8" t="str">
         <f>IF(JBordJour4!C13&lt;&gt;"",JBordJour4!C13,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C43" s="40" t="str">
+        <v xml:space="preserve">design antenne </v>
+      </c>
+      <c r="C43" s="35" t="str">
         <f>JBordJour4!$A$23</f>
         <v>-</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="45"/>
+      <c r="A44" s="33"/>
       <c r="B44" s="8" t="str">
         <f>IF(JBordJour4!C14&lt;&gt;"",JBordJour4!C14,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C44" s="41"/>
+        <v>design antenne</v>
+      </c>
+      <c r="C44" s="36"/>
     </row>
     <row r="45" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="45"/>
+      <c r="A45" s="33"/>
       <c r="B45" s="8" t="str">
         <f>IF(JBordJour4!C15&lt;&gt;"",JBordJour4!C15,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C45" s="41"/>
+        <v>design antenne</v>
+      </c>
+      <c r="C45" s="36"/>
     </row>
     <row r="46" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="45"/>
+      <c r="A46" s="33"/>
       <c r="B46" s="8" t="str">
         <f>IF(JBordJour4!C16&lt;&gt;"",JBordJour4!C16,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C46" s="41"/>
+        <v>design antenne</v>
+      </c>
+      <c r="C46" s="36"/>
     </row>
     <row r="47" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="45"/>
+      <c r="A47" s="33"/>
       <c r="B47" s="8" t="str">
         <f>IF(JBordJour4!C17&lt;&gt;"",JBordJour4!C17,"-")</f>
-        <v>-</v>
+        <v>design antenne</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="45"/>
+      <c r="A48" s="33"/>
       <c r="B48" s="8" t="str">
         <f>IF(JBordJour4!C18&lt;&gt;"",JBordJour4!C18,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C48" s="41">
+        <v>design antenne</v>
+      </c>
+      <c r="C48" s="36">
         <f>JBordJour4!$A$25</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="46"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="8" t="str">
         <f>IF(JBordJour4!C19&lt;&gt;"",JBordJour4!C19,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C49" s="41"/>
+        <v>design antenne</v>
+      </c>
+      <c r="C49" s="36"/>
     </row>
     <row r="50" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="18">
@@ -1684,9 +1687,9 @@
       </c>
       <c r="B50" s="8" t="str">
         <f>IF(JBordJour4!C20&lt;&gt;"",JBordJour4!C20,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C50" s="41"/>
+        <v>design antenne</v>
+      </c>
+      <c r="C50" s="36"/>
     </row>
     <row r="51" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
@@ -1700,7 +1703,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="44">
+      <c r="A52" s="32">
         <f>JBordJour4!C2</f>
         <v>0</v>
       </c>
@@ -1708,37 +1711,37 @@
         <f>IF(JBordJour5!C13&lt;&gt;"",JBordJour5!C13,"-")</f>
         <v>-</v>
       </c>
-      <c r="C52" s="40">
+      <c r="C52" s="35">
         <f>JBordJour5!$A$23</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="45"/>
+      <c r="A53" s="33"/>
       <c r="B53" s="8" t="str">
         <f>IF(JBordJour5!C14&lt;&gt;"",JBordJour5!C14,"-")</f>
         <v>-</v>
       </c>
-      <c r="C53" s="41"/>
+      <c r="C53" s="36"/>
     </row>
     <row r="54" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="45"/>
+      <c r="A54" s="33"/>
       <c r="B54" s="8" t="str">
         <f>IF(JBordJour5!C15&lt;&gt;"",JBordJour5!C15,"-")</f>
         <v>-</v>
       </c>
-      <c r="C54" s="41"/>
+      <c r="C54" s="36"/>
     </row>
     <row r="55" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="45"/>
+      <c r="A55" s="33"/>
       <c r="B55" s="8" t="str">
         <f>IF(JBordJour5!C16&lt;&gt;"",JBordJour5!C16,"-")</f>
         <v>-</v>
       </c>
-      <c r="C55" s="41"/>
+      <c r="C55" s="36"/>
     </row>
     <row r="56" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="45"/>
+      <c r="A56" s="33"/>
       <c r="B56" s="8" t="str">
         <f>IF(JBordJour5!C17&lt;&gt;"",JBordJour5!C17,"-")</f>
         <v>-</v>
@@ -1748,23 +1751,23 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="45"/>
+      <c r="A57" s="33"/>
       <c r="B57" s="8" t="str">
         <f>IF(JBordJour5!C18&lt;&gt;"",JBordJour5!C18,"-")</f>
         <v>-</v>
       </c>
-      <c r="C57" s="41">
+      <c r="C57" s="36">
         <f>JBordJour5!$A$25</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="46"/>
+      <c r="A58" s="34"/>
       <c r="B58" s="8" t="str">
         <f>IF(JBordJour5!C19&lt;&gt;"",JBordJour5!C19,"-")</f>
         <v>-</v>
       </c>
-      <c r="C58" s="41"/>
+      <c r="C58" s="36"/>
     </row>
     <row r="59" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="18">
@@ -1775,7 +1778,7 @@
         <f>IF(JBordJour5!C20&lt;&gt;"",JBordJour5!C20,"-")</f>
         <v>-</v>
       </c>
-      <c r="C59" s="41"/>
+      <c r="C59" s="36"/>
     </row>
     <row r="60" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
@@ -1789,7 +1792,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="44">
+      <c r="A61" s="32">
         <f>JBordJour6!C2</f>
         <v>0</v>
       </c>
@@ -1797,37 +1800,37 @@
         <f>IF(JBordJour6!C13&lt;&gt;"",JBordJour6!C13,"-")</f>
         <v>-</v>
       </c>
-      <c r="C61" s="40">
+      <c r="C61" s="35">
         <f>JBordJour6!$A$23</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="45"/>
+      <c r="A62" s="33"/>
       <c r="B62" s="8" t="str">
         <f>IF(JBordJour6!C14&lt;&gt;"",JBordJour6!C14,"-")</f>
         <v>-</v>
       </c>
-      <c r="C62" s="41"/>
+      <c r="C62" s="36"/>
     </row>
     <row r="63" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="45"/>
+      <c r="A63" s="33"/>
       <c r="B63" s="8" t="str">
         <f>IF(JBordJour6!C15&lt;&gt;"",JBordJour6!C15,"-")</f>
         <v>-</v>
       </c>
-      <c r="C63" s="41"/>
+      <c r="C63" s="36"/>
     </row>
     <row r="64" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="45"/>
+      <c r="A64" s="33"/>
       <c r="B64" s="8" t="str">
         <f>IF(JBordJour6!C16&lt;&gt;"",JBordJour6!C16,"-")</f>
         <v>-</v>
       </c>
-      <c r="C64" s="41"/>
+      <c r="C64" s="36"/>
     </row>
     <row r="65" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="45"/>
+      <c r="A65" s="33"/>
       <c r="B65" s="8" t="str">
         <f>IF(JBordJour6!C17&lt;&gt;"",JBordJour6!C17,"-")</f>
         <v>-</v>
@@ -1837,23 +1840,23 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="45"/>
+      <c r="A66" s="33"/>
       <c r="B66" s="8" t="str">
         <f>IF(JBordJour6!C18&lt;&gt;"",JBordJour6!C18,"-")</f>
         <v>-</v>
       </c>
-      <c r="C66" s="41">
+      <c r="C66" s="36">
         <f>JBordJour6!$A$25</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="46"/>
+      <c r="A67" s="34"/>
       <c r="B67" s="8" t="str">
         <f>IF(JBordJour6!C19&lt;&gt;"",JBordJour6!C19,"-")</f>
         <v>-</v>
       </c>
-      <c r="C67" s="41"/>
+      <c r="C67" s="36"/>
     </row>
     <row r="68" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="18">
@@ -1864,7 +1867,7 @@
         <f>IF(JBordJour6!C20&lt;&gt;"",JBordJour6!C20,"-")</f>
         <v>-</v>
       </c>
-      <c r="C68" s="41"/>
+      <c r="C68" s="36"/>
     </row>
     <row r="69" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
@@ -1878,7 +1881,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="44">
+      <c r="A70" s="32">
         <f>JBordJour7!C2</f>
         <v>0</v>
       </c>
@@ -1886,37 +1889,37 @@
         <f>IF(JBordJour7!C13&lt;&gt;"",JBordJour7!C13,"-")</f>
         <v>-</v>
       </c>
-      <c r="C70" s="40">
+      <c r="C70" s="35">
         <f>JBordJour7!$A$23</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="45"/>
+      <c r="A71" s="33"/>
       <c r="B71" s="8" t="str">
         <f>IF(JBordJour7!C14&lt;&gt;"",JBordJour7!C14,"-")</f>
         <v>-</v>
       </c>
-      <c r="C71" s="41"/>
+      <c r="C71" s="36"/>
     </row>
     <row r="72" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="45"/>
+      <c r="A72" s="33"/>
       <c r="B72" s="8" t="str">
         <f>IF(JBordJour7!C15&lt;&gt;"",JBordJour7!C15,"-")</f>
         <v>-</v>
       </c>
-      <c r="C72" s="41"/>
+      <c r="C72" s="36"/>
     </row>
     <row r="73" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="45"/>
+      <c r="A73" s="33"/>
       <c r="B73" s="8" t="str">
         <f>IF(JBordJour7!C16&lt;&gt;"",JBordJour7!C16,"-")</f>
         <v>-</v>
       </c>
-      <c r="C73" s="41"/>
+      <c r="C73" s="36"/>
     </row>
     <row r="74" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="45"/>
+      <c r="A74" s="33"/>
       <c r="B74" s="8" t="str">
         <f>IF(JBordJour7!C17&lt;&gt;"",JBordJour7!C17,"-")</f>
         <v>-</v>
@@ -1926,23 +1929,23 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="45"/>
+      <c r="A75" s="33"/>
       <c r="B75" s="8" t="str">
         <f>IF(JBordJour7!C18&lt;&gt;"",JBordJour7!C18,"-")</f>
         <v>-</v>
       </c>
-      <c r="C75" s="41">
+      <c r="C75" s="36">
         <f>JBordJour7!$A$25</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="46"/>
+      <c r="A76" s="34"/>
       <c r="B76" s="8" t="str">
         <f>IF(JBordJour7!C19&lt;&gt;"",JBordJour7!C19,"-")</f>
         <v>-</v>
       </c>
-      <c r="C76" s="41"/>
+      <c r="C76" s="36"/>
     </row>
     <row r="77" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="18">
@@ -1953,7 +1956,7 @@
         <f>IF(JBordJour7!C20&lt;&gt;"",JBordJour7!C20,"-")</f>
         <v>-</v>
       </c>
-      <c r="C77" s="41"/>
+      <c r="C77" s="36"/>
     </row>
     <row r="78" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
@@ -1967,7 +1970,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="44">
+      <c r="A79" s="32">
         <f>JBordJour8!C2</f>
         <v>0</v>
       </c>
@@ -1975,37 +1978,37 @@
         <f>IF(JBordJour8!C13&lt;&gt;"",JBordJour8!C13,"-")</f>
         <v>-</v>
       </c>
-      <c r="C79" s="40" t="str">
+      <c r="C79" s="35" t="str">
         <f>JBordJour8!$A$23</f>
         <v>-</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="45"/>
+      <c r="A80" s="33"/>
       <c r="B80" s="8" t="str">
         <f>IF(JBordJour8!C14&lt;&gt;"",JBordJour8!C14,"-")</f>
         <v>-</v>
       </c>
-      <c r="C80" s="41"/>
+      <c r="C80" s="36"/>
     </row>
     <row r="81" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="45"/>
+      <c r="A81" s="33"/>
       <c r="B81" s="8" t="str">
         <f>IF(JBordJour8!C15&lt;&gt;"",JBordJour8!C15,"-")</f>
         <v>-</v>
       </c>
-      <c r="C81" s="41"/>
+      <c r="C81" s="36"/>
     </row>
     <row r="82" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="45"/>
+      <c r="A82" s="33"/>
       <c r="B82" s="8" t="str">
         <f>IF(JBordJour8!C16&lt;&gt;"",JBordJour8!C16,"-")</f>
         <v>-</v>
       </c>
-      <c r="C82" s="41"/>
+      <c r="C82" s="36"/>
     </row>
     <row r="83" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="45"/>
+      <c r="A83" s="33"/>
       <c r="B83" s="8" t="str">
         <f>IF(JBordJour8!C17&lt;&gt;"",JBordJour8!C17,"-")</f>
         <v>-</v>
@@ -2015,23 +2018,23 @@
       </c>
     </row>
     <row r="84" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="45"/>
+      <c r="A84" s="33"/>
       <c r="B84" s="8" t="str">
         <f>IF(JBordJour8!C18&lt;&gt;"",JBordJour8!C18,"-")</f>
         <v>-</v>
       </c>
-      <c r="C84" s="41" t="str">
+      <c r="C84" s="36" t="str">
         <f>JBordJour8!$A$25</f>
         <v>-</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="46"/>
+      <c r="A85" s="34"/>
       <c r="B85" s="8" t="str">
         <f>IF(JBordJour8!C19&lt;&gt;"",JBordJour8!C19,"-")</f>
         <v>-</v>
       </c>
-      <c r="C85" s="41"/>
+      <c r="C85" s="36"/>
     </row>
     <row r="86" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="18">
@@ -2042,7 +2045,7 @@
         <f>IF(JBordJour8!C20&lt;&gt;"",JBordJour8!C20,"-")</f>
         <v>-</v>
       </c>
-      <c r="C86" s="41"/>
+      <c r="C86" s="36"/>
     </row>
     <row r="87" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
@@ -2056,7 +2059,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="44">
+      <c r="A88" s="32">
         <f>JBordJour9!C2</f>
         <v>0</v>
       </c>
@@ -2064,37 +2067,37 @@
         <f>IF(JBordJour9!C13&lt;&gt;"",JBordJour9!C13,"-")</f>
         <v>-</v>
       </c>
-      <c r="C88" s="40" t="str">
+      <c r="C88" s="35" t="str">
         <f>JBordJour9!$A$23</f>
         <v>-</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="45"/>
+      <c r="A89" s="33"/>
       <c r="B89" s="8" t="str">
         <f>IF(JBordJour9!C14&lt;&gt;"",JBordJour9!C14,"-")</f>
         <v>-</v>
       </c>
-      <c r="C89" s="41"/>
+      <c r="C89" s="36"/>
     </row>
     <row r="90" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="45"/>
+      <c r="A90" s="33"/>
       <c r="B90" s="8" t="str">
         <f>IF(JBordJour9!C15&lt;&gt;"",JBordJour9!C15,"-")</f>
         <v>-</v>
       </c>
-      <c r="C90" s="41"/>
+      <c r="C90" s="36"/>
     </row>
     <row r="91" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="45"/>
+      <c r="A91" s="33"/>
       <c r="B91" s="8" t="str">
         <f>IF(JBordJour9!C16&lt;&gt;"",JBordJour9!C16,"-")</f>
         <v>-</v>
       </c>
-      <c r="C91" s="41"/>
+      <c r="C91" s="36"/>
     </row>
     <row r="92" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="45"/>
+      <c r="A92" s="33"/>
       <c r="B92" s="8" t="str">
         <f>IF(JBordJour9!C17&lt;&gt;"",JBordJour9!C17,"-")</f>
         <v>-</v>
@@ -2104,23 +2107,23 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="45"/>
+      <c r="A93" s="33"/>
       <c r="B93" s="8" t="str">
         <f>IF(JBordJour9!C18&lt;&gt;"",JBordJour9!C18,"-")</f>
         <v>-</v>
       </c>
-      <c r="C93" s="41">
+      <c r="C93" s="36">
         <f>JBordJour9!$A$25</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="46"/>
+      <c r="A94" s="34"/>
       <c r="B94" s="8" t="str">
         <f>IF(JBordJour9!C19&lt;&gt;"",JBordJour9!C19,"-")</f>
         <v>-</v>
       </c>
-      <c r="C94" s="41"/>
+      <c r="C94" s="36"/>
     </row>
     <row r="95" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="18">
@@ -2131,7 +2134,7 @@
         <f>IF(JBordJour9!C20&lt;&gt;"",JBordJour9!C20,"-")</f>
         <v>-</v>
       </c>
-      <c r="C95" s="41"/>
+      <c r="C95" s="36"/>
     </row>
     <row r="96" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
@@ -2145,7 +2148,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="44">
+      <c r="A97" s="32">
         <f>JBordJour10!C2</f>
         <v>0</v>
       </c>
@@ -2153,37 +2156,37 @@
         <f>IF(JBordJour10!C13&lt;&gt;"",JBordJour10!C13,"-")</f>
         <v>-</v>
       </c>
-      <c r="C97" s="40" t="str">
+      <c r="C97" s="35" t="str">
         <f>JBordJour10!$A$23</f>
         <v>-</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="45"/>
+      <c r="A98" s="33"/>
       <c r="B98" s="8" t="str">
         <f>IF(JBordJour10!C14&lt;&gt;"",JBordJour10!C14,"-")</f>
         <v>-</v>
       </c>
-      <c r="C98" s="41"/>
+      <c r="C98" s="36"/>
     </row>
     <row r="99" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="45"/>
+      <c r="A99" s="33"/>
       <c r="B99" s="8" t="str">
         <f>IF(JBordJour10!C15&lt;&gt;"",JBordJour10!C15,"-")</f>
         <v>-</v>
       </c>
-      <c r="C99" s="41"/>
+      <c r="C99" s="36"/>
     </row>
     <row r="100" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="45"/>
+      <c r="A100" s="33"/>
       <c r="B100" s="8" t="str">
         <f>IF(JBordJour10!C16&lt;&gt;"",JBordJour10!C16,"-")</f>
         <v>-</v>
       </c>
-      <c r="C100" s="41"/>
+      <c r="C100" s="36"/>
     </row>
     <row r="101" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="45"/>
+      <c r="A101" s="33"/>
       <c r="B101" s="8" t="str">
         <f>IF(JBordJour10!C17&lt;&gt;"",JBordJour10!C17,"-")</f>
         <v>-</v>
@@ -2193,23 +2196,23 @@
       </c>
     </row>
     <row r="102" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="45"/>
+      <c r="A102" s="33"/>
       <c r="B102" s="8" t="str">
         <f>IF(JBordJour10!C18&lt;&gt;"",JBordJour10!C18,"-")</f>
         <v>-</v>
       </c>
-      <c r="C102" s="41" t="str">
+      <c r="C102" s="36" t="str">
         <f>JBordJour10!$A$25</f>
         <v>-</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="46"/>
+      <c r="A103" s="34"/>
       <c r="B103" s="8" t="str">
         <f>IF(JBordJour10!C19&lt;&gt;"",JBordJour10!C19,"-")</f>
         <v>-</v>
       </c>
-      <c r="C103" s="41"/>
+      <c r="C103" s="36"/>
     </row>
     <row r="104" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="18">
@@ -2220,7 +2223,7 @@
         <f>IF(JBordJour10!C20&lt;&gt;"",JBordJour10!C20,"-")</f>
         <v>-</v>
       </c>
-      <c r="C104" s="41"/>
+      <c r="C104" s="36"/>
     </row>
     <row r="105" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
@@ -2234,7 +2237,7 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="44">
+      <c r="A106" s="32">
         <f>JBordJour11!C2</f>
         <v>0</v>
       </c>
@@ -2242,37 +2245,37 @@
         <f>IF(JBordJour11!C13&lt;&gt;"",JBordJour11!C13,"-")</f>
         <v>-</v>
       </c>
-      <c r="C106" s="40" t="str">
+      <c r="C106" s="35" t="str">
         <f>JBordJour11!$A$23</f>
         <v>-</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="45"/>
+      <c r="A107" s="33"/>
       <c r="B107" s="8" t="str">
         <f>IF(JBordJour11!C14&lt;&gt;"",JBordJour11!C14,"-")</f>
         <v>-</v>
       </c>
-      <c r="C107" s="41"/>
+      <c r="C107" s="36"/>
     </row>
     <row r="108" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="45"/>
+      <c r="A108" s="33"/>
       <c r="B108" s="8" t="str">
         <f>IF(JBordJour11!C15&lt;&gt;"",JBordJour11!C15,"-")</f>
         <v>-</v>
       </c>
-      <c r="C108" s="41"/>
+      <c r="C108" s="36"/>
     </row>
     <row r="109" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="45"/>
+      <c r="A109" s="33"/>
       <c r="B109" s="8" t="str">
         <f>IF(JBordJour11!C16&lt;&gt;"",JBordJour11!C16,"-")</f>
         <v>-</v>
       </c>
-      <c r="C109" s="41"/>
+      <c r="C109" s="36"/>
     </row>
     <row r="110" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="45"/>
+      <c r="A110" s="33"/>
       <c r="B110" s="8" t="str">
         <f>IF(JBordJour11!C17&lt;&gt;"",JBordJour11!C17,"-")</f>
         <v>-</v>
@@ -2282,23 +2285,23 @@
       </c>
     </row>
     <row r="111" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="45"/>
+      <c r="A111" s="33"/>
       <c r="B111" s="8" t="str">
         <f>IF(JBordJour11!C18&lt;&gt;"",JBordJour11!C18,"-")</f>
         <v>-</v>
       </c>
-      <c r="C111" s="41" t="str">
+      <c r="C111" s="36" t="str">
         <f>JBordJour11!$A$25</f>
         <v>-</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="46"/>
+      <c r="A112" s="34"/>
       <c r="B112" s="8" t="str">
         <f>IF(JBordJour11!C19&lt;&gt;"",JBordJour11!C19,"-")</f>
         <v>-</v>
       </c>
-      <c r="C112" s="41"/>
+      <c r="C112" s="36"/>
     </row>
     <row r="113" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="18">
@@ -2309,10 +2312,39 @@
         <f>IF(JBordJour11!C20&lt;&gt;"",JBordJour11!C20,"-")</f>
         <v>-</v>
       </c>
-      <c r="C113" s="41"/>
+      <c r="C113" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="A97:A103"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="A52:A58"/>
     <mergeCell ref="A106:A112"/>
     <mergeCell ref="C61:C64"/>
     <mergeCell ref="C66:C68"/>
@@ -2329,35 +2361,6 @@
     <mergeCell ref="C97:C100"/>
     <mergeCell ref="C102:C104"/>
     <mergeCell ref="A79:A85"/>
-    <mergeCell ref="A88:A94"/>
-    <mergeCell ref="A97:A103"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="A52:A58"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59027777777777779" right="0.39374999999999999" top="0.59027777777777779" bottom="0.59027777777777779" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -2391,116 +2394,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
     </row>
     <row r="2" spans="1:4" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="76" t="str">
+      <c r="A3" s="80" t="str">
         <f>JBordResume!$A$2</f>
         <v>Projet</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="77" t="str">
+      <c r="A4" s="81" t="str">
         <f>JBordResume!$A$3</f>
         <v>Nom du projet</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="28" t="str">
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="27" t="str">
         <f>JBordResume!$C$3</f>
         <v>Date de remise</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="78" t="str">
+      <c r="A5" s="76" t="str">
         <f>JBordResume!$A$4</f>
         <v>SensorBall for avalanche analysis</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="29">
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="28">
         <f>JBordResume!$C$4</f>
         <v>43693</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="79" t="str">
+      <c r="A6" s="77" t="str">
         <f>JBordResume!$A$7</f>
         <v>Membres du projet</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="80" t="str">
+      <c r="A7" s="72" t="str">
         <f>JBordResume!$A$8</f>
         <v>Nom</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="81" t="str">
+      <c r="B7" s="72"/>
+      <c r="C7" s="74" t="str">
         <f>JBordResume!$B$8</f>
         <v>chenaux</v>
       </c>
-      <c r="D7" s="82"/>
+      <c r="D7" s="75"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="80" t="str">
+      <c r="A8" s="72" t="str">
         <f>JBordResume!$A$9</f>
         <v>Prénom</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="81" t="str">
+      <c r="B8" s="72"/>
+      <c r="C8" s="74" t="str">
         <f>JBordResume!$B$9</f>
         <v>johan</v>
       </c>
-      <c r="D8" s="82"/>
+      <c r="D8" s="75"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="80" t="str">
+      <c r="A9" s="72" t="str">
         <f>JBordResume!$A$10</f>
         <v>Profession</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="81" t="str">
+      <c r="B9" s="72"/>
+      <c r="C9" s="74" t="str">
         <f>JBordResume!$B$10</f>
         <v>infotronics</v>
       </c>
-      <c r="D9" s="82"/>
+      <c r="D9" s="75"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="80" t="str">
+      <c r="A10" s="72" t="str">
         <f>JBordResume!$A$11</f>
         <v>Orientation</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="81" t="str">
+      <c r="B10" s="72"/>
+      <c r="C10" s="74" t="str">
         <f>JBordResume!$B$11</f>
         <v>système industriels</v>
       </c>
-      <c r="D10" s="82"/>
+      <c r="D10" s="75"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="39" t="s">
@@ -2509,95 +2512,95 @@
       <c r="D11" s="39"/>
     </row>
     <row r="12" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="30" t="str">
+      <c r="B12" s="73"/>
+      <c r="C12" s="29" t="str">
         <f>JBordResume!$B$13</f>
         <v>Tâches effectuées</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="31">
+      <c r="A13" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="31">
         <v>0.375</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="31">
+      <c r="A14" s="30">
         <f>B13</f>
         <v>0.375</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="31">
         <v>0.41666666666666669</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="32">
+      <c r="A15" s="31">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="31">
         <v>0.45833333333333331</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="31">
+      <c r="A16" s="30">
         <f>B15</f>
         <v>0.45833333333333331</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="31">
         <v>0.5</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="31">
+      <c r="A17" s="30">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="31">
         <v>0.60416666666666663</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="31">
+      <c r="A18" s="30">
         <v>0.60416666666666663</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="31">
         <v>0.64583333333333337</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="31">
+      <c r="A19" s="30">
         <v>0.64583333333333337</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="31">
         <v>0.6875</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="31">
+      <c r="A20" s="30">
         <v>0.6875</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="31">
         <v>0.70833333333333337</v>
       </c>
       <c r="C20" s="23"/>
@@ -2610,57 +2613,70 @@
       <c r="B21" s="16">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
     </row>
     <row r="22" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
     </row>
     <row r="23" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
     </row>
     <row r="25" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
     </row>
     <row r="27" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="A27:D27"/>
@@ -2671,19 +2687,6 @@
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59027777777777779" right="0.39374999999999999" top="0.59027777777777779" bottom="0.59027777777777779" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -2712,49 +2715,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
     </row>
     <row r="2" spans="1:4" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="str">
+      <c r="A3" s="43" t="str">
         <f>JBordResume!$A$2</f>
         <v>Projet</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="str">
+      <c r="A4" s="44" t="str">
         <f>JBordResume!$A$3</f>
         <v>Nom du projet</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="3" t="str">
         <f>JBordResume!$C$3</f>
         <v>Date de remise</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="str">
+      <c r="A5" s="55" t="str">
         <f>JBordResume!$A$4</f>
         <v>SensorBall for avalanche analysis</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="9">
         <f>JBordResume!$C$4</f>
         <v>43693</v>
@@ -2770,52 +2773,52 @@
       <c r="D6" s="38"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="50" t="str">
+      <c r="A7" s="46" t="str">
         <f>JBordResume!$A$8</f>
         <v>Nom</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51" t="str">
+      <c r="B7" s="46"/>
+      <c r="C7" s="53" t="str">
         <f>JBordResume!$B$8</f>
         <v>chenaux</v>
       </c>
-      <c r="D7" s="52"/>
+      <c r="D7" s="54"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="str">
+      <c r="A8" s="46" t="str">
         <f>JBordResume!$A$9</f>
         <v>Prénom</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51" t="str">
+      <c r="B8" s="46"/>
+      <c r="C8" s="53" t="str">
         <f>JBordResume!$B$9</f>
         <v>johan</v>
       </c>
-      <c r="D8" s="52"/>
+      <c r="D8" s="54"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="50" t="str">
+      <c r="A9" s="46" t="str">
         <f>JBordResume!$A$10</f>
         <v>Profession</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51" t="str">
+      <c r="B9" s="46"/>
+      <c r="C9" s="53" t="str">
         <f>JBordResume!$B$10</f>
         <v>infotronics</v>
       </c>
-      <c r="D9" s="52"/>
+      <c r="D9" s="54"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="str">
+      <c r="A10" s="46" t="str">
         <f>JBordResume!$A$11</f>
         <v>Orientation</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="51" t="str">
+      <c r="B10" s="46"/>
+      <c r="C10" s="53" t="str">
         <f>JBordResume!$B$11</f>
         <v>système industriels</v>
       </c>
-      <c r="D10" s="52"/>
+      <c r="D10" s="54"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
@@ -2824,16 +2827,16 @@
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="53"/>
+      <c r="D11" s="47"/>
     </row>
     <row r="12" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="12" t="str">
         <f>JBordResume!$B$13</f>
         <v>Tâches effectuées</v>
@@ -2935,55 +2938,68 @@
       <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
     </row>
     <row r="23" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
     </row>
     <row r="25" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="83" t="s">
+      <c r="A25" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="83"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
     </row>
     <row r="27" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="83" t="s">
+      <c r="A27" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="A27:D27"/>
@@ -2994,19 +3010,6 @@
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59027777777777779" right="0.39374999999999999" top="0.59027777777777779" bottom="0.59027777777777779" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -3035,49 +3038,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
     </row>
     <row r="2" spans="1:4" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="str">
+      <c r="A3" s="43" t="str">
         <f>JBordResume!$A$2</f>
         <v>Projet</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="str">
+      <c r="A4" s="44" t="str">
         <f>JBordResume!$A$3</f>
         <v>Nom du projet</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="3" t="str">
         <f>JBordResume!$C$3</f>
         <v>Date de remise</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="str">
+      <c r="A5" s="55" t="str">
         <f>JBordResume!$A$4</f>
         <v>SensorBall for avalanche analysis</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="9">
         <f>JBordResume!$C$4</f>
         <v>43693</v>
@@ -3093,52 +3096,52 @@
       <c r="D6" s="38"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="50" t="str">
+      <c r="A7" s="46" t="str">
         <f>JBordResume!$A$8</f>
         <v>Nom</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51" t="str">
+      <c r="B7" s="46"/>
+      <c r="C7" s="53" t="str">
         <f>JBordResume!$B$8</f>
         <v>chenaux</v>
       </c>
-      <c r="D7" s="52"/>
+      <c r="D7" s="54"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="str">
+      <c r="A8" s="46" t="str">
         <f>JBordResume!$A$9</f>
         <v>Prénom</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51" t="str">
+      <c r="B8" s="46"/>
+      <c r="C8" s="53" t="str">
         <f>JBordResume!$B$9</f>
         <v>johan</v>
       </c>
-      <c r="D8" s="52"/>
+      <c r="D8" s="54"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="50" t="str">
+      <c r="A9" s="46" t="str">
         <f>JBordResume!$A$10</f>
         <v>Profession</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51" t="str">
+      <c r="B9" s="46"/>
+      <c r="C9" s="53" t="str">
         <f>JBordResume!$B$10</f>
         <v>infotronics</v>
       </c>
-      <c r="D9" s="52"/>
+      <c r="D9" s="54"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="str">
+      <c r="A10" s="46" t="str">
         <f>JBordResume!$A$11</f>
         <v>Orientation</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="51" t="str">
+      <c r="B10" s="46"/>
+      <c r="C10" s="53" t="str">
         <f>JBordResume!$B$11</f>
         <v>système industriels</v>
       </c>
-      <c r="D10" s="52"/>
+      <c r="D10" s="54"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
@@ -3147,16 +3150,16 @@
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="53"/>
+      <c r="D11" s="47"/>
     </row>
     <row r="12" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="12" t="str">
         <f>JBordResume!$B$13</f>
         <v>Tâches effectuées</v>
@@ -3258,55 +3261,68 @@
       <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
     </row>
     <row r="23" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
     </row>
     <row r="25" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="83" t="s">
+      <c r="A25" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="83"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
     </row>
     <row r="27" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="83" t="s">
+      <c r="A27" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="A27:D27"/>
@@ -3317,19 +3333,6 @@
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59027777777777779" right="0.39374999999999999" top="0.59027777777777779" bottom="0.59027777777777779" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -3358,49 +3361,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
     </row>
     <row r="2" spans="1:4" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="str">
+      <c r="A3" s="43" t="str">
         <f>JBordResume!$A$2</f>
         <v>Projet</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="str">
+      <c r="A4" s="44" t="str">
         <f>JBordResume!$A$3</f>
         <v>Nom du projet</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="3" t="str">
         <f>JBordResume!$C$3</f>
         <v>Date de remise</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="str">
+      <c r="A5" s="55" t="str">
         <f>JBordResume!$A$4</f>
         <v>SensorBall for avalanche analysis</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="9">
         <f>JBordResume!$C$4</f>
         <v>43693</v>
@@ -3416,52 +3419,52 @@
       <c r="D6" s="38"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="50" t="str">
+      <c r="A7" s="46" t="str">
         <f>JBordResume!$A$8</f>
         <v>Nom</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51" t="str">
+      <c r="B7" s="46"/>
+      <c r="C7" s="53" t="str">
         <f>JBordResume!$B$8</f>
         <v>chenaux</v>
       </c>
-      <c r="D7" s="52"/>
+      <c r="D7" s="54"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="str">
+      <c r="A8" s="46" t="str">
         <f>JBordResume!$A$9</f>
         <v>Prénom</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51" t="str">
+      <c r="B8" s="46"/>
+      <c r="C8" s="53" t="str">
         <f>JBordResume!$B$9</f>
         <v>johan</v>
       </c>
-      <c r="D8" s="52"/>
+      <c r="D8" s="54"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="50" t="str">
+      <c r="A9" s="46" t="str">
         <f>JBordResume!$A$10</f>
         <v>Profession</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51" t="str">
+      <c r="B9" s="46"/>
+      <c r="C9" s="53" t="str">
         <f>JBordResume!$B$10</f>
         <v>infotronics</v>
       </c>
-      <c r="D9" s="52"/>
+      <c r="D9" s="54"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="str">
+      <c r="A10" s="46" t="str">
         <f>JBordResume!$A$11</f>
         <v>Orientation</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="51" t="str">
+      <c r="B10" s="46"/>
+      <c r="C10" s="53" t="str">
         <f>JBordResume!$B$11</f>
         <v>système industriels</v>
       </c>
-      <c r="D10" s="52"/>
+      <c r="D10" s="54"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
@@ -3470,16 +3473,16 @@
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="53"/>
+      <c r="D11" s="47"/>
     </row>
     <row r="12" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="12" t="str">
         <f>JBordResume!$B$13</f>
         <v>Tâches effectuées</v>
@@ -3597,51 +3600,64 @@
       <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
     </row>
     <row r="23" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
     </row>
     <row r="25" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
     </row>
     <row r="27" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="A25:D25"/>
@@ -3652,19 +3668,6 @@
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59027777777777779" right="0.39374999999999999" top="0.59027777777777779" bottom="0.59027777777777779" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -3693,49 +3696,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
     </row>
     <row r="2" spans="1:4" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="str">
+      <c r="A3" s="43" t="str">
         <f>JBordResume!$A$2</f>
         <v>Projet</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="str">
+      <c r="A4" s="44" t="str">
         <f>JBordResume!$A$3</f>
         <v>Nom du projet</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="3" t="str">
         <f>JBordResume!$C$3</f>
         <v>Date de remise</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="str">
+      <c r="A5" s="55" t="str">
         <f>JBordResume!$A$4</f>
         <v>SensorBall for avalanche analysis</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="9">
         <f>JBordResume!$C$4</f>
         <v>43693</v>
@@ -3751,52 +3754,52 @@
       <c r="D6" s="38"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="50" t="str">
+      <c r="A7" s="46" t="str">
         <f>JBordResume!$A$8</f>
         <v>Nom</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51" t="str">
+      <c r="B7" s="46"/>
+      <c r="C7" s="53" t="str">
         <f>JBordResume!$B$8</f>
         <v>chenaux</v>
       </c>
-      <c r="D7" s="52"/>
+      <c r="D7" s="54"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="str">
+      <c r="A8" s="46" t="str">
         <f>JBordResume!$A$9</f>
         <v>Prénom</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51" t="str">
+      <c r="B8" s="46"/>
+      <c r="C8" s="53" t="str">
         <f>JBordResume!$B$9</f>
         <v>johan</v>
       </c>
-      <c r="D8" s="52"/>
+      <c r="D8" s="54"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="50" t="str">
+      <c r="A9" s="46" t="str">
         <f>JBordResume!$A$10</f>
         <v>Profession</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51" t="str">
+      <c r="B9" s="46"/>
+      <c r="C9" s="53" t="str">
         <f>JBordResume!$B$10</f>
         <v>infotronics</v>
       </c>
-      <c r="D9" s="52"/>
+      <c r="D9" s="54"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="str">
+      <c r="A10" s="46" t="str">
         <f>JBordResume!$A$11</f>
         <v>Orientation</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="51" t="str">
+      <c r="B10" s="46"/>
+      <c r="C10" s="53" t="str">
         <f>JBordResume!$B$11</f>
         <v>système industriels</v>
       </c>
-      <c r="D10" s="52"/>
+      <c r="D10" s="54"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
@@ -3805,16 +3808,16 @@
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="53"/>
+      <c r="D11" s="47"/>
     </row>
     <row r="12" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="12" t="str">
         <f>JBordResume!$B$13</f>
         <v>Tâches effectuées</v>
@@ -3932,51 +3935,64 @@
       <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
     </row>
     <row r="23" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
     </row>
     <row r="25" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
     </row>
     <row r="27" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="A27:D27"/>
@@ -3987,19 +4003,6 @@
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59027777777777779" right="0.39374999999999999" top="0.59027777777777779" bottom="0.59027777777777779" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -4015,8 +4018,8 @@
   </sheetPr>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4028,49 +4031,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
     </row>
     <row r="2" spans="1:4" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="str">
+      <c r="A3" s="43" t="str">
         <f>JBordResume!$A$2</f>
         <v>Projet</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="str">
+      <c r="A4" s="44" t="str">
         <f>JBordResume!$A$3</f>
         <v>Nom du projet</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="3" t="str">
         <f>JBordResume!$C$3</f>
         <v>Date de remise</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="str">
+      <c r="A5" s="55" t="str">
         <f>JBordResume!$A$4</f>
         <v>SensorBall for avalanche analysis</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="9">
         <f>JBordResume!$C$4</f>
         <v>43693</v>
@@ -4086,52 +4089,52 @@
       <c r="D6" s="38"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="50" t="str">
+      <c r="A7" s="46" t="str">
         <f>JBordResume!$A$8</f>
         <v>Nom</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51" t="str">
+      <c r="B7" s="46"/>
+      <c r="C7" s="53" t="str">
         <f>JBordResume!$B$8</f>
         <v>chenaux</v>
       </c>
-      <c r="D7" s="52"/>
+      <c r="D7" s="54"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="str">
+      <c r="A8" s="46" t="str">
         <f>JBordResume!$A$9</f>
         <v>Prénom</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51" t="str">
+      <c r="B8" s="46"/>
+      <c r="C8" s="53" t="str">
         <f>JBordResume!$B$9</f>
         <v>johan</v>
       </c>
-      <c r="D8" s="52"/>
+      <c r="D8" s="54"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="50" t="str">
+      <c r="A9" s="46" t="str">
         <f>JBordResume!$A$10</f>
         <v>Profession</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51" t="str">
+      <c r="B9" s="46"/>
+      <c r="C9" s="53" t="str">
         <f>JBordResume!$B$10</f>
         <v>infotronics</v>
       </c>
-      <c r="D9" s="52"/>
+      <c r="D9" s="54"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="str">
+      <c r="A10" s="46" t="str">
         <f>JBordResume!$A$11</f>
         <v>Orientation</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="51" t="str">
+      <c r="B10" s="46"/>
+      <c r="C10" s="53" t="str">
         <f>JBordResume!$B$11</f>
         <v>système industriels</v>
       </c>
-      <c r="D10" s="52"/>
+      <c r="D10" s="54"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
@@ -4140,16 +4143,16 @@
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="53"/>
+      <c r="D11" s="47"/>
     </row>
     <row r="12" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="12" t="str">
         <f>JBordResume!$B$13</f>
         <v>Tâches effectuées</v>
@@ -4165,7 +4168,7 @@
       <c r="B13" s="13">
         <v>0.375</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="24" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="22"/>
@@ -4178,7 +4181,7 @@
       <c r="B14" s="13">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="24" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="22"/>
@@ -4190,7 +4193,9 @@
       <c r="B15" s="13">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="24" t="s">
+        <v>34</v>
+      </c>
       <c r="D15" s="22"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -4201,7 +4206,9 @@
       <c r="B16" s="13">
         <v>0.5</v>
       </c>
-      <c r="C16" s="24"/>
+      <c r="C16" s="24" t="s">
+        <v>34</v>
+      </c>
       <c r="D16" s="22"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -4211,7 +4218,9 @@
       <c r="B17" s="13">
         <v>0.5625</v>
       </c>
-      <c r="C17" s="24"/>
+      <c r="C17" s="24" t="s">
+        <v>34</v>
+      </c>
       <c r="D17" s="22"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -4221,7 +4230,9 @@
       <c r="B18" s="13">
         <v>0.60416666666666663</v>
       </c>
-      <c r="C18" s="24"/>
+      <c r="C18" s="24" t="s">
+        <v>34</v>
+      </c>
       <c r="D18" s="22"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -4231,7 +4242,9 @@
       <c r="B19" s="13">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C19" s="25"/>
+      <c r="C19" s="24" t="s">
+        <v>34</v>
+      </c>
       <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -4241,7 +4254,9 @@
       <c r="B20" s="13">
         <v>0.6875</v>
       </c>
-      <c r="C20" s="23"/>
+      <c r="C20" s="24" t="s">
+        <v>34</v>
+      </c>
       <c r="D20" s="22"/>
     </row>
     <row r="21" spans="1:4" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -4255,51 +4270,64 @@
       <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="71"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="70"/>
     </row>
     <row r="23" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="65"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
     </row>
     <row r="24" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="68"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="67"/>
     </row>
     <row r="25" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="60"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="62"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="61"/>
     </row>
     <row r="26" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="66" t="s">
+      <c r="A26" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="68"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="67"/>
     </row>
     <row r="27" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="60"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="62"/>
+      <c r="A27" s="59"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="A27:D27"/>
@@ -4310,19 +4338,6 @@
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59027777777777779" right="0.39374999999999999" top="0.59027777777777779" bottom="0.59027777777777779" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -4338,8 +4353,8 @@
   </sheetPr>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4351,49 +4366,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
     </row>
     <row r="2" spans="1:4" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="str">
+      <c r="A3" s="43" t="str">
         <f>JBordResume!$A$2</f>
         <v>Projet</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="str">
+      <c r="A4" s="44" t="str">
         <f>JBordResume!$A$3</f>
         <v>Nom du projet</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="3" t="str">
         <f>JBordResume!$C$3</f>
         <v>Date de remise</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="str">
+      <c r="A5" s="55" t="str">
         <f>JBordResume!$A$4</f>
         <v>SensorBall for avalanche analysis</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="9">
         <f>JBordResume!$C$4</f>
         <v>43693</v>
@@ -4409,52 +4424,52 @@
       <c r="D6" s="38"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="50" t="str">
+      <c r="A7" s="46" t="str">
         <f>JBordResume!$A$8</f>
         <v>Nom</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51" t="str">
+      <c r="B7" s="46"/>
+      <c r="C7" s="53" t="str">
         <f>JBordResume!$B$8</f>
         <v>chenaux</v>
       </c>
-      <c r="D7" s="52"/>
+      <c r="D7" s="54"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="str">
+      <c r="A8" s="46" t="str">
         <f>JBordResume!$A$9</f>
         <v>Prénom</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51" t="str">
+      <c r="B8" s="46"/>
+      <c r="C8" s="53" t="str">
         <f>JBordResume!$B$9</f>
         <v>johan</v>
       </c>
-      <c r="D8" s="52"/>
+      <c r="D8" s="54"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="50" t="str">
+      <c r="A9" s="46" t="str">
         <f>JBordResume!$A$10</f>
         <v>Profession</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51" t="str">
+      <c r="B9" s="46"/>
+      <c r="C9" s="53" t="str">
         <f>JBordResume!$B$10</f>
         <v>infotronics</v>
       </c>
-      <c r="D9" s="52"/>
+      <c r="D9" s="54"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="str">
+      <c r="A10" s="46" t="str">
         <f>JBordResume!$A$11</f>
         <v>Orientation</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="51" t="str">
+      <c r="B10" s="46"/>
+      <c r="C10" s="53" t="str">
         <f>JBordResume!$B$11</f>
         <v>système industriels</v>
       </c>
-      <c r="D10" s="52"/>
+      <c r="D10" s="54"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
@@ -4463,16 +4478,16 @@
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="53"/>
+      <c r="D11" s="47"/>
     </row>
     <row r="12" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="12" t="str">
         <f>JBordResume!$B$13</f>
         <v>Tâches effectuées</v>
@@ -4488,8 +4503,12 @@
       <c r="B13" s="13">
         <v>0.375</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="C13" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
@@ -4499,7 +4518,9 @@
       <c r="B14" s="13">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C14" s="21"/>
+      <c r="C14" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -4509,7 +4530,9 @@
       <c r="B15" s="13">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="D15" s="21"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -4520,7 +4543,9 @@
       <c r="B16" s="13">
         <v>0.5</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="D16" s="21"/>
     </row>
     <row r="17" spans="1:4" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -4530,7 +4555,9 @@
       <c r="B17" s="13">
         <v>0.5625</v>
       </c>
-      <c r="C17" s="21"/>
+      <c r="C17" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="D17" s="21"/>
     </row>
     <row r="18" spans="1:4" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -4540,7 +4567,9 @@
       <c r="B18" s="13">
         <v>0.60416666666666663</v>
       </c>
-      <c r="C18" s="21"/>
+      <c r="C18" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="D18" s="21"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -4550,7 +4579,9 @@
       <c r="B19" s="13">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C19" s="21"/>
+      <c r="C19" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -4560,7 +4591,9 @@
       <c r="B20" s="13">
         <v>0.6875</v>
       </c>
-      <c r="C20" s="23"/>
+      <c r="C20" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -4570,55 +4603,68 @@
       <c r="B21" s="16">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
     </row>
     <row r="22" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
     </row>
     <row r="23" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
     </row>
     <row r="25" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
     </row>
     <row r="27" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="A27:D27"/>
@@ -4629,19 +4675,6 @@
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59027777777777779" right="0.39374999999999999" top="0.59027777777777779" bottom="0.59027777777777779" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -4670,116 +4703,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
     </row>
     <row r="2" spans="1:4" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="76" t="str">
+      <c r="A3" s="80" t="str">
         <f>JBordResume!$A$2</f>
         <v>Projet</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="77" t="str">
+      <c r="A4" s="81" t="str">
         <f>JBordResume!$A$3</f>
         <v>Nom du projet</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="28" t="str">
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="27" t="str">
         <f>JBordResume!$C$3</f>
         <v>Date de remise</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="78" t="str">
+      <c r="A5" s="76" t="str">
         <f>JBordResume!$A$4</f>
         <v>SensorBall for avalanche analysis</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="29">
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="28">
         <f>JBordResume!$C$4</f>
         <v>43693</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="79" t="str">
+      <c r="A6" s="77" t="str">
         <f>JBordResume!$A$7</f>
         <v>Membres du projet</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="80" t="str">
+      <c r="A7" s="72" t="str">
         <f>JBordResume!$A$8</f>
         <v>Nom</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="81" t="str">
+      <c r="B7" s="72"/>
+      <c r="C7" s="74" t="str">
         <f>JBordResume!$B$8</f>
         <v>chenaux</v>
       </c>
-      <c r="D7" s="82"/>
+      <c r="D7" s="75"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="80" t="str">
+      <c r="A8" s="72" t="str">
         <f>JBordResume!$A$9</f>
         <v>Prénom</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="81" t="str">
+      <c r="B8" s="72"/>
+      <c r="C8" s="74" t="str">
         <f>JBordResume!$B$9</f>
         <v>johan</v>
       </c>
-      <c r="D8" s="82"/>
+      <c r="D8" s="75"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="80" t="str">
+      <c r="A9" s="72" t="str">
         <f>JBordResume!$A$10</f>
         <v>Profession</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="81" t="str">
+      <c r="B9" s="72"/>
+      <c r="C9" s="74" t="str">
         <f>JBordResume!$B$10</f>
         <v>infotronics</v>
       </c>
-      <c r="D9" s="82"/>
+      <c r="D9" s="75"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="80" t="str">
+      <c r="A10" s="72" t="str">
         <f>JBordResume!$A$11</f>
         <v>Orientation</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="81" t="str">
+      <c r="B10" s="72"/>
+      <c r="C10" s="74" t="str">
         <f>JBordResume!$B$11</f>
         <v>système industriels</v>
       </c>
-      <c r="D10" s="82"/>
+      <c r="D10" s="75"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="39" t="s">
@@ -4788,95 +4821,95 @@
       <c r="D11" s="39"/>
     </row>
     <row r="12" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="30" t="str">
+      <c r="B12" s="73"/>
+      <c r="C12" s="29" t="str">
         <f>JBordResume!$B$13</f>
         <v>Tâches effectuées</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="31">
+      <c r="A13" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="31">
         <v>0.375</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:4" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31">
+      <c r="A14" s="30">
         <f>B13</f>
         <v>0.375</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="31">
         <v>0.41666666666666669</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="32">
+      <c r="A15" s="31">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="31">
         <v>0.45833333333333331</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="31">
+      <c r="A16" s="30">
         <f>B15</f>
         <v>0.45833333333333331</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="31">
         <v>0.5</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="31">
+      <c r="A17" s="30">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="31">
         <v>0.60416666666666663</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="31">
+      <c r="A18" s="30">
         <v>0.60416666666666663</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="31">
         <v>0.64583333333333337</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="31">
+      <c r="A19" s="30">
         <v>0.64583333333333337</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="31">
         <v>0.6875</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="31">
+      <c r="A20" s="30">
         <v>0.6875</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="31">
         <v>0.70833333333333337</v>
       </c>
       <c r="C20" s="23"/>
@@ -4889,53 +4922,66 @@
       <c r="B21" s="16">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
     </row>
     <row r="22" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
     </row>
     <row r="23" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="58"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
     </row>
     <row r="25" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
     </row>
     <row r="27" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="A27:D27"/>
@@ -4946,19 +4992,6 @@
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59027777777777779" right="0.39374999999999999" top="0.59027777777777779" bottom="0.59027777777777779" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -4987,49 +5020,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
     </row>
     <row r="2" spans="1:4" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="str">
+      <c r="A3" s="43" t="str">
         <f>JBordResume!$A$2</f>
         <v>Projet</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="str">
+      <c r="A4" s="44" t="str">
         <f>JBordResume!$A$3</f>
         <v>Nom du projet</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="3" t="str">
         <f>JBordResume!$C$3</f>
         <v>Date de remise</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="str">
+      <c r="A5" s="55" t="str">
         <f>JBordResume!$A$4</f>
         <v>SensorBall for avalanche analysis</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="9">
         <f>JBordResume!$C$4</f>
         <v>43693</v>
@@ -5045,52 +5078,52 @@
       <c r="D6" s="38"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="50" t="str">
+      <c r="A7" s="46" t="str">
         <f>JBordResume!$A$8</f>
         <v>Nom</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51" t="str">
+      <c r="B7" s="46"/>
+      <c r="C7" s="53" t="str">
         <f>JBordResume!$B$8</f>
         <v>chenaux</v>
       </c>
-      <c r="D7" s="52"/>
+      <c r="D7" s="54"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="str">
+      <c r="A8" s="46" t="str">
         <f>JBordResume!$A$9</f>
         <v>Prénom</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51" t="str">
+      <c r="B8" s="46"/>
+      <c r="C8" s="53" t="str">
         <f>JBordResume!$B$9</f>
         <v>johan</v>
       </c>
-      <c r="D8" s="52"/>
+      <c r="D8" s="54"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="50" t="str">
+      <c r="A9" s="46" t="str">
         <f>JBordResume!$A$10</f>
         <v>Profession</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51" t="str">
+      <c r="B9" s="46"/>
+      <c r="C9" s="53" t="str">
         <f>JBordResume!$B$10</f>
         <v>infotronics</v>
       </c>
-      <c r="D9" s="52"/>
+      <c r="D9" s="54"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="str">
+      <c r="A10" s="46" t="str">
         <f>JBordResume!$A$11</f>
         <v>Orientation</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="51" t="str">
+      <c r="B10" s="46"/>
+      <c r="C10" s="53" t="str">
         <f>JBordResume!$B$11</f>
         <v>système industriels</v>
       </c>
-      <c r="D10" s="52"/>
+      <c r="D10" s="54"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
@@ -5099,16 +5132,16 @@
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="53"/>
+      <c r="D11" s="47"/>
     </row>
     <row r="12" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="12" t="str">
         <f>JBordResume!$B$13</f>
         <v>Tâches effectuées</v>
@@ -5210,49 +5243,62 @@
       <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
     </row>
     <row r="23" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="58"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
     </row>
     <row r="25" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
     </row>
     <row r="27" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="A27:D27"/>
@@ -5263,19 +5309,6 @@
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59027777777777779" right="0.39374999999999999" top="0.59027777777777779" bottom="0.59027777777777779" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -5304,116 +5337,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
     </row>
     <row r="2" spans="1:4" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="76" t="str">
+      <c r="A3" s="80" t="str">
         <f>JBordResume!$A$2</f>
         <v>Projet</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="77" t="str">
+      <c r="A4" s="81" t="str">
         <f>JBordResume!$A$3</f>
         <v>Nom du projet</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="28" t="str">
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="27" t="str">
         <f>JBordResume!$C$3</f>
         <v>Date de remise</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="78" t="str">
+      <c r="A5" s="76" t="str">
         <f>JBordResume!$A$4</f>
         <v>SensorBall for avalanche analysis</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="29">
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="28">
         <f>JBordResume!$C$4</f>
         <v>43693</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="79" t="str">
+      <c r="A6" s="77" t="str">
         <f>JBordResume!$A$7</f>
         <v>Membres du projet</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="80" t="str">
+      <c r="A7" s="72" t="str">
         <f>JBordResume!$A$8</f>
         <v>Nom</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="81" t="str">
+      <c r="B7" s="72"/>
+      <c r="C7" s="74" t="str">
         <f>JBordResume!$B$8</f>
         <v>chenaux</v>
       </c>
-      <c r="D7" s="82"/>
+      <c r="D7" s="75"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="80" t="str">
+      <c r="A8" s="72" t="str">
         <f>JBordResume!$A$9</f>
         <v>Prénom</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="81" t="str">
+      <c r="B8" s="72"/>
+      <c r="C8" s="74" t="str">
         <f>JBordResume!$B$9</f>
         <v>johan</v>
       </c>
-      <c r="D8" s="82"/>
+      <c r="D8" s="75"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="80" t="str">
+      <c r="A9" s="72" t="str">
         <f>JBordResume!$A$10</f>
         <v>Profession</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="81" t="str">
+      <c r="B9" s="72"/>
+      <c r="C9" s="74" t="str">
         <f>JBordResume!$B$10</f>
         <v>infotronics</v>
       </c>
-      <c r="D9" s="82"/>
+      <c r="D9" s="75"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="80" t="str">
+      <c r="A10" s="72" t="str">
         <f>JBordResume!$A$11</f>
         <v>Orientation</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="81" t="str">
+      <c r="B10" s="72"/>
+      <c r="C10" s="74" t="str">
         <f>JBordResume!$B$11</f>
         <v>système industriels</v>
       </c>
-      <c r="D10" s="82"/>
+      <c r="D10" s="75"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="39" t="s">
@@ -5422,95 +5455,95 @@
       <c r="D11" s="39"/>
     </row>
     <row r="12" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="30" t="str">
+      <c r="B12" s="73"/>
+      <c r="C12" s="29" t="str">
         <f>JBordResume!$B$13</f>
         <v>Tâches effectuées</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="31">
+      <c r="A13" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="31">
         <v>0.375</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="31">
+      <c r="A14" s="30">
         <f>B13</f>
         <v>0.375</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="31">
         <v>0.41666666666666669</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="32">
+      <c r="A15" s="31">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="31">
         <v>0.45833333333333331</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
     </row>
     <row r="16" spans="1:4" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="31">
+      <c r="A16" s="30">
         <f>B15</f>
         <v>0.45833333333333331</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="31">
         <v>0.5</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="31">
+      <c r="A17" s="30">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="31">
         <v>0.60416666666666663</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="31">
+      <c r="A18" s="30">
         <v>0.60416666666666663</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="31">
         <v>0.64583333333333337</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="31">
+      <c r="A19" s="30">
         <v>0.64583333333333337</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="31">
         <v>0.6875</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="31">
+      <c r="A20" s="30">
         <v>0.6875</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="31">
         <v>0.70833333333333337</v>
       </c>
       <c r="C20" s="23"/>
@@ -5523,53 +5556,66 @@
       <c r="B21" s="16">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
     </row>
     <row r="22" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
     </row>
     <row r="23" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="58"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
     </row>
     <row r="25" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
     </row>
     <row r="27" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="A27:D27"/>
@@ -5580,19 +5626,6 @@
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59027777777777779" right="0.39374999999999999" top="0.59027777777777779" bottom="0.59027777777777779" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -5621,116 +5654,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
     </row>
     <row r="2" spans="1:4" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="76" t="str">
+      <c r="A3" s="80" t="str">
         <f>JBordResume!$A$2</f>
         <v>Projet</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="77" t="str">
+      <c r="A4" s="81" t="str">
         <f>JBordResume!$A$3</f>
         <v>Nom du projet</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="28" t="str">
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="27" t="str">
         <f>JBordResume!$C$3</f>
         <v>Date de remise</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="78" t="str">
+      <c r="A5" s="76" t="str">
         <f>JBordResume!$A$4</f>
         <v>SensorBall for avalanche analysis</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="29">
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="28">
         <f>JBordResume!$C$4</f>
         <v>43693</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="79" t="str">
+      <c r="A6" s="77" t="str">
         <f>JBordResume!$A$7</f>
         <v>Membres du projet</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="80" t="str">
+      <c r="A7" s="72" t="str">
         <f>JBordResume!$A$8</f>
         <v>Nom</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="81" t="str">
+      <c r="B7" s="72"/>
+      <c r="C7" s="74" t="str">
         <f>JBordResume!$B$8</f>
         <v>chenaux</v>
       </c>
-      <c r="D7" s="82"/>
+      <c r="D7" s="75"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="80" t="str">
+      <c r="A8" s="72" t="str">
         <f>JBordResume!$A$9</f>
         <v>Prénom</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="81" t="str">
+      <c r="B8" s="72"/>
+      <c r="C8" s="74" t="str">
         <f>JBordResume!$B$9</f>
         <v>johan</v>
       </c>
-      <c r="D8" s="82"/>
+      <c r="D8" s="75"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="80" t="str">
+      <c r="A9" s="72" t="str">
         <f>JBordResume!$A$10</f>
         <v>Profession</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="81" t="str">
+      <c r="B9" s="72"/>
+      <c r="C9" s="74" t="str">
         <f>JBordResume!$B$10</f>
         <v>infotronics</v>
       </c>
-      <c r="D9" s="82"/>
+      <c r="D9" s="75"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="80" t="str">
+      <c r="A10" s="72" t="str">
         <f>JBordResume!$A$11</f>
         <v>Orientation</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="81" t="str">
+      <c r="B10" s="72"/>
+      <c r="C10" s="74" t="str">
         <f>JBordResume!$B$11</f>
         <v>système industriels</v>
       </c>
-      <c r="D10" s="82"/>
+      <c r="D10" s="75"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="39" t="s">
@@ -5739,95 +5772,95 @@
       <c r="D11" s="39"/>
     </row>
     <row r="12" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="30" t="str">
+      <c r="B12" s="73"/>
+      <c r="C12" s="29" t="str">
         <f>JBordResume!$B$13</f>
         <v>Tâches effectuées</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="31">
+      <c r="A13" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="31">
         <v>0.375</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="31">
+      <c r="A14" s="30">
         <f>B13</f>
         <v>0.375</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="31">
         <v>0.41666666666666669</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="32">
+      <c r="A15" s="31">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="31">
         <v>0.45833333333333331</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="31">
+      <c r="A16" s="30">
         <f>B15</f>
         <v>0.45833333333333331</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="31">
         <v>0.5</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="31">
+      <c r="A17" s="30">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="31">
         <v>0.60416666666666663</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="31">
+      <c r="A18" s="30">
         <v>0.60416666666666663</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="31">
         <v>0.64583333333333337</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="31">
+      <c r="A19" s="30">
         <v>0.64583333333333337</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="31">
         <v>0.6875</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="31">
+      <c r="A20" s="30">
         <v>0.6875</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="31">
         <v>0.70833333333333337</v>
       </c>
       <c r="C20" s="23"/>
@@ -5840,57 +5873,70 @@
       <c r="B21" s="16">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
     </row>
     <row r="22" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
     </row>
     <row r="23" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
     </row>
     <row r="25" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
     </row>
     <row r="27" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="A27:D27"/>
@@ -5901,19 +5947,6 @@
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59027777777777779" right="0.39374999999999999" top="0.59027777777777779" bottom="0.59027777777777779" header="0.51180555555555551" footer="0.51180555555555551"/>
